--- a/backend/parking-api.xlsx
+++ b/backend/parking-api.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bong1\git\repository\parking-system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bong1\git\ParkingSystem\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952010D0-3CE8-4892-AAA4-EE346EE624A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DFE689-67AC-4CB9-9946-A380DC259758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CB78462B-5C08-4EE6-AD1D-2F3310432425}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{CB78462B-5C08-4EE6-AD1D-2F3310432425}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -206,23 +206,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9AAF130-9968-448D-BC35-714922745B4D}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -555,7 +552,7 @@
     <col min="7" max="7" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -576,7 +573,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -589,9 +586,8 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -603,7 +599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -620,7 +616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>14</v>
       </c>
